--- a/combined.xlsx
+++ b/combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A IIIT DWD\semester 4\SE\new timetable gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TimeTable-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4418A3B-5B25-4717-9B64-60105C2A7060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B09B2-C256-403E-B3E2-81F516A06D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,15 +629,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,8 +857,8 @@
   </sheetPr>
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -904,10 +903,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -943,8 +942,8 @@
       <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -980,8 +979,8 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -1017,8 +1016,8 @@
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1054,8 +1053,8 @@
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -1088,11 +1087,11 @@
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1125,11 +1124,11 @@
       <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -1162,11 +1161,11 @@
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1202,8 +1201,8 @@
       <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -1239,8 +1238,8 @@
       <c r="K10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -1276,8 +1275,8 @@
       <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -1313,8 +1312,8 @@
       <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -1347,11 +1346,11 @@
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -1384,11 +1383,11 @@
       <c r="J14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -1421,11 +1420,11 @@
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -1461,8 +1460,8 @@
       <c r="K16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -1498,8 +1497,8 @@
       <c r="K17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
@@ -1535,8 +1534,8 @@
       <c r="K18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
@@ -1572,8 +1571,8 @@
       <c r="K19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
@@ -1609,8 +1608,8 @@
       <c r="K20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
@@ -1646,8 +1645,8 @@
       <c r="K21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -1683,8 +1682,8 @@
       <c r="K22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -1720,8 +1719,8 @@
       <c r="K23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
@@ -1757,8 +1756,8 @@
       <c r="K24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
@@ -1794,8 +1793,8 @@
       <c r="K25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
@@ -1831,8 +1830,8 @@
       <c r="K26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
@@ -1868,8 +1867,8 @@
       <c r="K27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="13.8">
       <c r="A28" s="1" t="s">
@@ -1905,8 +1904,8 @@
       <c r="K28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="13.8">
       <c r="A29" s="1" t="s">
@@ -1939,11 +1938,11 @@
       <c r="J29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="13.8">
       <c r="A30" s="1" t="s">
@@ -1976,11 +1975,11 @@
       <c r="J30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" ht="13.8">
       <c r="A31" s="1" t="s">
@@ -2013,11 +2012,11 @@
       <c r="J31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="3"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="13.8">
       <c r="A32" s="1" t="s">
@@ -2050,11 +2049,11 @@
       <c r="J32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="13.8">
       <c r="A33" s="1" t="s">
@@ -2090,8 +2089,8 @@
       <c r="K33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="13.8">
       <c r="A34" s="1" t="s">
@@ -2127,8 +2126,8 @@
       <c r="K34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="13.8">
       <c r="A35" s="1" t="s">
@@ -2161,11 +2160,11 @@
       <c r="J35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="13.8">
       <c r="A36" s="1" t="s">
@@ -2198,11 +2197,11 @@
       <c r="J36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="13.8">
       <c r="A37" s="1" t="s">
@@ -2235,11 +2234,11 @@
       <c r="J37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="3"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="13.8">
       <c r="A38" s="1" t="s">
@@ -2272,11 +2271,11 @@
       <c r="J38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="13.8">
       <c r="A39" s="1" t="s">
@@ -2312,8 +2311,8 @@
       <c r="K39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="13.8">
       <c r="A40" s="1" t="s">
@@ -2349,8 +2348,8 @@
       <c r="K40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="13.8">
       <c r="A41" s="1" t="s">
@@ -2386,8 +2385,8 @@
       <c r="K41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="13.8">
       <c r="A42" s="1" t="s">
@@ -2420,11 +2419,11 @@
       <c r="J42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" ht="13.8">
       <c r="A43" s="1" t="s">
@@ -2457,11 +2456,11 @@
       <c r="J43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" ht="13.8">
       <c r="A44" s="1" t="s">
@@ -2497,8 +2496,8 @@
       <c r="K44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" ht="13.8">
       <c r="A45" s="1" t="s">
@@ -2534,8 +2533,8 @@
       <c r="K45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="13.8">
       <c r="A46" s="1" t="s">
@@ -2571,8 +2570,8 @@
       <c r="K46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="13.8">
       <c r="A47" s="1" t="s">
@@ -2605,11 +2604,11 @@
       <c r="J47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" ht="13.8">
       <c r="A48" s="1" t="s">
@@ -2642,11 +2641,11 @@
       <c r="J48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:13" ht="13.8">
       <c r="A49" s="1" t="s">
@@ -2682,8 +2681,8 @@
       <c r="K49" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" ht="13.8">
       <c r="A50" s="1" t="s">
@@ -2719,8 +2718,8 @@
       <c r="K50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" ht="13.8">
       <c r="A51" s="1" t="s">
@@ -2756,8 +2755,8 @@
       <c r="K51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:13" ht="13.8">
       <c r="A52" s="1" t="s">
@@ -2793,8 +2792,8 @@
       <c r="K52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" ht="13.8">
       <c r="A53" s="1" t="s">
@@ -2830,8 +2829,8 @@
       <c r="K53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" ht="13.8">
       <c r="A54" s="1" t="s">
@@ -2867,8 +2866,8 @@
       <c r="K54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" ht="13.8">
       <c r="A55" s="1" t="s">
@@ -2907,7 +2906,7 @@
       <c r="L55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M55" s="3"/>
+      <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13" ht="13.8">
       <c r="A56" s="1" t="s">
@@ -2946,7 +2945,7 @@
       <c r="L56" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M56" s="3"/>
+      <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" ht="13.8">
       <c r="A57" s="1" t="s">
@@ -2985,7 +2984,7 @@
       <c r="L57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M57" s="3"/>
+      <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" ht="13.8">
       <c r="A58" s="1" t="s">
@@ -3024,7 +3023,7 @@
       <c r="L58" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:13" ht="13.8">
       <c r="A59" s="1" t="s">
@@ -3063,7 +3062,7 @@
       <c r="L59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M59" s="3"/>
+      <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13" ht="13.8">
       <c r="A60" s="1" t="s">
@@ -3102,7 +3101,7 @@
       <c r="L60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M60" s="3"/>
+      <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" ht="13.8">
       <c r="A61" s="1" t="s">
@@ -3135,11 +3134,11 @@
       <c r="J61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
     </row>
     <row r="62" spans="1:13" ht="13.8">
       <c r="A62" s="1" t="s">
@@ -3172,11 +3171,11 @@
       <c r="J62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
     </row>
     <row r="63" spans="1:13" ht="13.8">
       <c r="A63" s="1" t="s">
@@ -3212,8 +3211,8 @@
       <c r="K63" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" ht="13.8">
       <c r="A64" s="1" t="s">
@@ -3246,11 +3245,11 @@
       <c r="J64" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" ht="13.8">
       <c r="A65" s="1" t="s">
@@ -3283,11 +3282,11 @@
       <c r="J65" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" ht="13.8">
       <c r="A66" s="1" t="s">
@@ -3320,11 +3319,11 @@
       <c r="J66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L66" s="5"/>
-      <c r="M66" s="3"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" spans="1:13" ht="13.8">
       <c r="A67" s="1" t="s">
@@ -3360,8 +3359,8 @@
       <c r="K67" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
     </row>
     <row r="68" spans="1:13" ht="13.8">
       <c r="A68" s="1" t="s">
@@ -3397,8 +3396,8 @@
       <c r="K68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" ht="13.8">
       <c r="A69" s="1" t="s">
@@ -3431,11 +3430,11 @@
       <c r="J69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" ht="13.8">
       <c r="A70" s="1" t="s">
@@ -3468,11 +3467,11 @@
       <c r="J70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
     </row>
     <row r="71" spans="1:13" ht="13.8">
       <c r="A71" s="1" t="s">
@@ -3508,8 +3507,8 @@
       <c r="K71" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:13" ht="13.8">
       <c r="A72" s="1" t="s">
@@ -3545,8 +3544,8 @@
       <c r="K72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13" ht="13.8">
       <c r="A73" s="1" t="s">
@@ -3582,8 +3581,8 @@
       <c r="K73" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13" ht="13.8">
       <c r="A74" s="1" t="s">
@@ -3619,8 +3618,8 @@
       <c r="K74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13" ht="13.8">
       <c r="A75" s="1" t="s">
@@ -3656,8 +3655,8 @@
       <c r="K75" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" ht="13.8">
       <c r="A76" s="1" t="s">
@@ -3693,8 +3692,8 @@
       <c r="K76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13" ht="13.8">
       <c r="A77" s="1" t="s">
@@ -3730,8 +3729,8 @@
       <c r="K77" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" ht="13.8">
       <c r="A78" s="1" t="s">
@@ -3764,11 +3763,11 @@
       <c r="J78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
     </row>
     <row r="79" spans="1:13" ht="13.8">
       <c r="A79" s="1" t="s">
@@ -3801,11 +3800,11 @@
       <c r="J79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
     </row>
     <row r="80" spans="1:13" ht="13.8">
       <c r="A80" s="1" t="s">
@@ -3838,11 +3837,11 @@
       <c r="J80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L80" s="5"/>
-      <c r="M80" s="3"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" ht="13.8">
       <c r="A81" s="1" t="s">
@@ -3875,11 +3874,11 @@
       <c r="J81" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" ht="13.8">
       <c r="A82" s="1" t="s">
@@ -3915,8 +3914,8 @@
       <c r="K82" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" ht="13.8">
       <c r="A83" s="1" t="s">
@@ -3952,196 +3951,176 @@
       <c r="K83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" ht="13.8">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" ht="13.8">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13" ht="13.8">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" ht="13.8">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" ht="13.8">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13" ht="13.8">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:13" ht="13.8">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" ht="13.8">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" ht="13.8">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:13" ht="13.8">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" ht="13.8">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K61:M61"/>
     <mergeCell ref="K62:M62"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="K81:M81"/>
@@ -4152,6 +4131,26 @@
     <mergeCell ref="K70:M70"/>
     <mergeCell ref="K78:M78"/>
     <mergeCell ref="K79:M79"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
